--- a/Data/Input/ACME.xlsx
+++ b/Data/Input/ACME.xlsx
@@ -994,6 +994,99 @@
   </x:si>
   <x:si>
     <x:t>France</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GF87351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Figueredo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UK18656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raymond Crider</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP75053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bud Baril</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XX97615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elidia Gaulke</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HR70321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clement Paulette</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Romania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EU67601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Floy Shedd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KK58395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fritz Balke</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RU90268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Veda Blaylock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RX80036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathan Jasik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EQ75283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kizzie Kohen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Italy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QS86336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Donn Chabot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AD38755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Villacorta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN58561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alvaro Dash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AD55686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Digna Buffaloe</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1344,7 +1437,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F31"/>
+  <x:dimension ref="A1:F102"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3404,7 +3497,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I6"/>
+  <x:dimension ref="A1:I16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3708,7 +3801,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A3"/>
+  <x:dimension ref="A1:I16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3768,9 +3861,6 @@
       <x:c r="H2" s="0" t="s">
         <x:v>325</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="s">
@@ -3789,16 +3879,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -3818,16 +3905,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -3847,16 +3931,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -3876,16 +3957,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -3905,16 +3983,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -3934,16 +4009,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -3963,16 +4035,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -3992,16 +4061,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -4021,16 +4087,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -4050,16 +4113,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -4079,16 +4139,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -4108,16 +4165,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -4137,16 +4191,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -4166,16 +4217,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
